--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -121,18 +121,18 @@
     <t>positive</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -160,13 +160,13 @@
     <t>community</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>help</t>
@@ -1530,25 +1530,25 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7086956521739131</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L20">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1556,13 +1556,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7058823529411765</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="N21">
         <v>0.92</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1582,25 +1582,25 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6899999999999999</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L22">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O22">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1608,25 +1608,25 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6829268292682927</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1868,25 +1868,25 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5779816513761468</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L33">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>138</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1894,25 +1894,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5641025641025641</v>
+        <v>0.5625</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1920,13 +1920,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.5625</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="10:17">
